--- a/CRM Gerencia.xlsx
+++ b/CRM Gerencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gonzalo PL\Desktop\Automatizaciones\Automatizacione-EMP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F777866-3242-4D54-A6A6-52CD5D58212F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36E3DFC-019A-4975-BD54-7BB50F7968FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="705" windowWidth="25155" windowHeight="12570" activeTab="2" xr2:uid="{1F475FD0-6C96-DB43-BF42-9F1779482BE9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{1F475FD0-6C96-DB43-BF42-9F1779482BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="AGENDA" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </externalReferences>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId6"/>
+    <pivotCache cacheId="5" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="458">
   <si>
     <t>No.</t>
   </si>
@@ -1439,6 +1439,15 @@
   </si>
   <si>
     <t>Costos</t>
+  </si>
+  <si>
+    <t>I25103</t>
+  </si>
+  <si>
+    <t>I23000</t>
+  </si>
+  <si>
+    <t>I22471</t>
   </si>
 </sst>
 </file>
@@ -5015,7 +5024,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A24350AF-0DAA-4E57-A0A1-279768A94851}" name="TablaDinámica2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A24350AF-0DAA-4E57-A0A1-279768A94851}" name="TablaDinámica2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A36:C65" firstHeaderRow="1" firstDataRow="1" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="23">
     <pivotField showAll="0"/>
@@ -5961,7 +5970,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D9830E6D-AA9E-42E6-867A-7F5C26C1366F}" name="TablaDinámica1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D9830E6D-AA9E-42E6-867A-7F5C26C1366F}" name="TablaDinámica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField showAll="0"/>
@@ -12583,7 +12592,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12670,6 +12679,9 @@
       <c r="D4" t="s">
         <v>317</v>
       </c>
+      <c r="F4" t="s">
+        <v>457</v>
+      </c>
       <c r="G4" t="s">
         <v>310</v>
       </c>
@@ -12707,6 +12719,9 @@
       <c r="E5">
         <v>20601646367</v>
       </c>
+      <c r="F5" t="s">
+        <v>456</v>
+      </c>
       <c r="G5" t="s">
         <v>358</v>
       </c>
@@ -12744,6 +12759,9 @@
       </c>
       <c r="E6">
         <v>20613618687</v>
+      </c>
+      <c r="F6" t="s">
+        <v>455</v>
       </c>
       <c r="G6" t="s">
         <v>360</v>
